--- a/teamContributions - grp8.xlsx
+++ b/teamContributions - grp8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davyb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davyb\Documents\GitHub\CS4013-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE18859-CB60-4F52-A6B0-983849F04B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC90F1-1595-49D1-A57F-639A1056C06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t xml:space="preserve">This contributions document must be agreed by all team members </t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Discord - Voice call</t>
+  </si>
+  <si>
+    <t>https://github.com/Kyle-R-H/CS4013-Project</t>
   </si>
 </sst>
 </file>
@@ -289,13 +292,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -613,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,24 +631,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1148,7 +1151,9 @@
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1180,7 +1185,7 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="4"/>
@@ -1249,7 +1254,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="3"/>
@@ -1304,7 +1309,10 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{CE2C596C-3E71-4CB4-B91B-3CBF621E187A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/teamContributions - grp8.xlsx
+++ b/teamContributions - grp8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davyb\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davyb\Documents\GitHub\CS4013-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE18859-CB60-4F52-A6B0-983849F04B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE675C2-EF0D-450D-B736-0282B21E89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t xml:space="preserve">This contributions document must be agreed by all team members </t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Discord - Voice call</t>
+  </si>
+  <si>
+    <t>https://github.com/Kyle-R-H/CS4013-Project</t>
   </si>
 </sst>
 </file>
@@ -289,13 +292,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -614,7 +617,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,24 +631,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1148,7 +1151,9 @@
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>55</v>
+      </c>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1180,7 +1185,7 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="4"/>
@@ -1249,7 +1254,7 @@
       <c r="F39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F40" s="3"/>
@@ -1304,7 +1309,10 @@
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="A1:F1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{3EB9E69C-6C5C-4987-9CD6-2A7E414DD956}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/teamContributions - grp8.xlsx
+++ b/teamContributions - grp8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davyb\Documents\GitHub\CS4013-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EC90F1-1595-49D1-A57F-639A1056C06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE675C2-EF0D-450D-B736-0282B21E89F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -616,7 +616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -1310,7 +1310,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B31" r:id="rId1" xr:uid="{CE2C596C-3E71-4CB4-B91B-3CBF621E187A}"/>
+    <hyperlink ref="B31" r:id="rId1" xr:uid="{3EB9E69C-6C5C-4987-9CD6-2A7E414DD956}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
